--- a/data/raw_data/V2G_scenarios.xlsx
+++ b/data/raw_data/V2G_scenarios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fernaag/Box/BATMAN/Coding/V2G_in_EU/data/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0AB712A-03E5-2448-89C9-EBC78509C9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13BD095-1E2E-C441-9E7D-B4E56A5EF111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="3000" windowWidth="28040" windowHeight="17440" xr2:uid="{153A1DFE-D90F-DF43-B8E0-BAFD59405B0E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="10">
   <si>
     <t>Scenario</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>High</t>
+  </si>
+  <si>
+    <t>V2G mandate</t>
+  </si>
+  <si>
+    <t>No V2G</t>
   </si>
 </sst>
 </file>
@@ -409,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E541D588-FEA6-A045-AE58-49EC3BEDDD0F}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -557,6 +563,90 @@
         <v>0.7</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>2020</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>2030</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>2050</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>2020</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>2030</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>2050</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/raw_data/V2G_scenarios.xlsx
+++ b/data/raw_data/V2G_scenarios.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fernaag/Box/BATMAN/Coding/V2G_in_EU/data/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13BD095-1E2E-C441-9E7D-B4E56A5EF111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C74F4A88-328B-1D41-9C20-59C061040521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="3000" windowWidth="28040" windowHeight="17440" xr2:uid="{153A1DFE-D90F-DF43-B8E0-BAFD59405B0E}"/>
+    <workbookView xWindow="760" yWindow="560" windowWidth="28040" windowHeight="17440" xr2:uid="{153A1DFE-D90F-DF43-B8E0-BAFD59405B0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -418,7 +418,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/raw_data/V2G_scenarios.xlsx
+++ b/data/raw_data/V2G_scenarios.xlsx
@@ -1,40 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fernaag/Box/BATMAN/Coding/V2G_in_EU/data/raw_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauinger\Desktop\dirk\Second-Life Batteries\code_git\V2G_in_EU\data\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C74F4A88-328B-1D41-9C20-59C061040521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="560" windowWidth="28040" windowHeight="17440" xr2:uid="{153A1DFE-D90F-DF43-B8E0-BAFD59405B0E}"/>
+    <workbookView xWindow="5175" yWindow="3000" windowWidth="28035" windowHeight="17445"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="11">
   <si>
     <t>Scenario</t>
   </si>
@@ -64,12 +49,15 @@
   </si>
   <si>
     <t>No V2G</t>
+  </si>
+  <si>
+    <t>Early</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -414,16 +402,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E541D588-FEA6-A045-AE58-49EC3BEDDD0F}">
-  <dimension ref="A1:D16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -437,7 +425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -451,7 +439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -465,7 +453,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -479,7 +467,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -493,7 +481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -507,7 +495,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -521,7 +509,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -535,7 +523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -549,7 +537,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -563,7 +551,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -577,7 +565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -585,13 +573,13 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>2030</v>
+        <v>2028</v>
       </c>
       <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -599,41 +587,41 @@
         <v>4</v>
       </c>
       <c r="C13">
+        <v>2031</v>
+      </c>
+      <c r="D13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>2035</v>
+      </c>
+      <c r="D14">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15">
         <v>2050</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14">
-        <v>2020</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15">
-        <v>2030</v>
-      </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -641,10 +629,108 @@
         <v>4</v>
       </c>
       <c r="C16">
+        <v>2020</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>2030</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18">
         <v>2050</v>
       </c>
-      <c r="D16">
-        <v>0</v>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>2020</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>2024</v>
+      </c>
+      <c r="D20">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>2027</v>
+      </c>
+      <c r="D21">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>2031</v>
+      </c>
+      <c r="D22">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>2050</v>
+      </c>
+      <c r="D23">
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw_data/V2G_scenarios.xlsx
+++ b/data/raw_data/V2G_scenarios.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauinger\Desktop\dirk\Second-Life Batteries\code_git\V2G_in_EU\data\raw_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fernaag/Library/CloudStorage/Box-Box/BATMAN/Coding/V2G_in_EU/data/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9CA9927-1771-1840-9D5E-C7073D9043C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5175" yWindow="3000" windowWidth="28035" windowHeight="17445"/>
+    <workbookView xWindow="5300" yWindow="3220" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -402,16 +403,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -425,9 +426,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -439,9 +440,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -450,12 +451,12 @@
         <v>2030</v>
       </c>
       <c r="D3">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -464,12 +465,12 @@
         <v>2050</v>
       </c>
       <c r="D4">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -481,9 +482,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -492,12 +493,12 @@
         <v>2030</v>
       </c>
       <c r="D6">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -506,12 +507,12 @@
         <v>2050</v>
       </c>
       <c r="D7">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -523,9 +524,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -534,12 +535,12 @@
         <v>2030</v>
       </c>
       <c r="D9">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -548,12 +549,12 @@
         <v>2050</v>
       </c>
       <c r="D10">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -565,35 +566,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
       <c r="C12">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c r="D12">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
       </c>
       <c r="C13">
-        <v>2031</v>
+        <v>2050</v>
       </c>
       <c r="D13">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -601,13 +602,13 @@
         <v>4</v>
       </c>
       <c r="C14">
-        <v>2035</v>
+        <v>2020</v>
       </c>
       <c r="D14">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -615,43 +616,43 @@
         <v>4</v>
       </c>
       <c r="C15">
-        <v>2050</v>
+        <v>2028</v>
       </c>
       <c r="D15">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
       </c>
       <c r="C16">
-        <v>2020</v>
+        <v>2031</v>
       </c>
       <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
       </c>
       <c r="C17">
-        <v>2030</v>
+        <v>2035</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
@@ -660,10 +661,10 @@
         <v>2050</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -677,7 +678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -691,7 +692,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -705,7 +706,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -719,7 +720,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>10</v>
       </c>

--- a/data/raw_data/V2G_scenarios.xlsx
+++ b/data/raw_data/V2G_scenarios.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fernaag/Library/CloudStorage/Box-Box/BATMAN/Coding/V2G_in_EU/data/raw_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\cdm1files\rao\Users\lauinger\Second-Life Batteries\code_git\V2G_in_EU\data\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9CA9927-1771-1840-9D5E-C7073D9043C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5300" yWindow="3220" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5295" yWindow="3225" windowWidth="28035" windowHeight="17445"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +57,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -403,16 +402,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -426,7 +425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -440,7 +439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -454,7 +453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -468,7 +467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -482,7 +481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -496,7 +495,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -510,7 +509,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -524,7 +523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -535,10 +534,10 @@
         <v>2030</v>
       </c>
       <c r="D9">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -552,7 +551,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -566,7 +565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -577,10 +576,10 @@
         <v>2030</v>
       </c>
       <c r="D12">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0.26500000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -594,7 +593,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -608,7 +607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -622,7 +621,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -636,7 +635,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -650,7 +649,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -664,7 +663,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -678,7 +677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -692,7 +691,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -706,7 +705,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -720,7 +719,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
